--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/analysis/p1-2-5-7/p1-2-5-7_analysis.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/analysis/p1-2-5-7/p1-2-5-7_analysis.xlsx
@@ -21400,7 +21400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21426,7 +21426,12 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>FeltLocation</t>
+          <t>FeltLocation_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>FeltLocation_sem</t>
         </is>
       </c>
     </row>
@@ -21443,6 +21448,9 @@
       <c r="D2" t="n">
         <v>0.110706397</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.03172763380405878</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -21457,6 +21465,9 @@
       <c r="D3" t="n">
         <v>0.02815773623529412</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.01289529311747519</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -21470,6 +21481,9 @@
       </c>
       <c r="D4" t="n">
         <v>0.07065492499999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.036245635448693</v>
       </c>
     </row>
     <row r="5">
@@ -21485,6 +21499,9 @@
       <c r="D5" t="n">
         <v>0.3548125561538462</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.08745161782125668</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -21499,6 +21516,9 @@
       <c r="D6" t="n">
         <v>0.1284710007142857</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.07109481098548776</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -21513,6 +21533,9 @@
       <c r="D7" t="n">
         <v>0.1147608176470588</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.03855420499323802</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -21527,6 +21550,9 @@
       <c r="D8" t="n">
         <v>0.60613636</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.08226304168786747</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -21541,6 +21567,9 @@
       <c r="D9" t="n">
         <v>0.6948522666666667</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.05723586968683964</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -21555,6 +21584,9 @@
       <c r="D10" t="n">
         <v>0.7193046999999999</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.06592575182572864</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -21569,6 +21601,9 @@
       <c r="D11" t="n">
         <v>0.80678655</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.04269298438186399</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -21583,6 +21618,9 @@
       <c r="D12" t="n">
         <v>0.8380902461538462</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.03677251644057189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -21597,6 +21635,9 @@
       <c r="D13" t="n">
         <v>0.7832477933333333</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.08643477500964938</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -21611,6 +21652,9 @@
       <c r="D14" t="n">
         <v>0.9300246363636364</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.03220535366161763</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -21625,6 +21669,9 @@
       <c r="D15" t="n">
         <v>0.89790554</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.04508611715039691</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -21638,6 +21685,9 @@
       </c>
       <c r="D16" t="n">
         <v>0.8925709384615386</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03648612832855996</v>
       </c>
     </row>
   </sheetData>
@@ -21646,6 +21696,608 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>FeltLocation_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>FeltLocation_sem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.069277596</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03072188775502754</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03511911733333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01535471303982583</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.056366271875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02037622107427044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.207518009375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05779773123243756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1943155076470588</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04842802701914322</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1596887764285714</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05366183136208378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.64601948125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06180088476995105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.49681749375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.06579668637807141</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5698384333333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07335718472225872</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8086388071428571</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02871668234053689</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8310574066666666</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.04348937884269092</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8185736066666666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0475903822699938</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8980547944444444</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03324994179053775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9073454866666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02582082684568494</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.91100448125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0280239306776655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>FeltLocation_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>FeltLocation_sem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08332000583333334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03660992173154304</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03389060666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01531470464187455</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03593158673333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01584918529028614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2289309333333333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05138921815481214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.168861068125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05132118279892504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.216043638</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04866716703956508</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5732893384615385</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06716264045290715</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5337280607142857</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07214100633765873</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5409015579999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07557574267226326</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8596210533333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03544044073299378</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7757468970588235</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05526738417820325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8000308823529412</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.04414236256134822</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9165571857142857</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03523538422633032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8435034625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.03779338605257414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8545002529411764</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03935494342773602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21672,12 +22324,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>FeltLocation_mean</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>FeltLocation</t>
+          <t>FeltLocation_sem</t>
         </is>
       </c>
     </row>
@@ -21689,10 +22341,10 @@
         <v>-15</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.08502886432432433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.069277596</v>
+        <v>0.01890530387157573</v>
       </c>
     </row>
     <row r="3">
@@ -21703,10 +22355,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.03220909310638298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03511911733333333</v>
+        <v>0.008173746707383647</v>
       </c>
     </row>
     <row r="4">
@@ -21717,10 +22369,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.05322542444186047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.056366271875</v>
+        <v>0.0136012856620238</v>
       </c>
     </row>
     <row r="5">
@@ -21731,10 +22383,10 @@
         <v>-15</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.2583367131818182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207518009375</v>
+        <v>0.03794859833440592</v>
       </c>
     </row>
     <row r="6">
@@ -21745,10 +22397,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.1660369091489362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1943155076470588</v>
+        <v>0.03206892035950892</v>
       </c>
     </row>
     <row r="7">
@@ -21759,10 +22411,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.1614615508695652</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1596887764285714</v>
+        <v>0.0269870764915197</v>
       </c>
     </row>
     <row r="8">
@@ -21773,10 +22425,10 @@
         <v>-15</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.611549658974359</v>
       </c>
       <c r="D8" t="n">
-        <v>0.64601948125</v>
+        <v>0.03911740818181753</v>
       </c>
     </row>
     <row r="9">
@@ -21787,10 +22439,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.581846115625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.49681749375</v>
+        <v>0.03863010454761717</v>
       </c>
     </row>
     <row r="10">
@@ -21801,10 +22453,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.6049316504651163</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5698384333333333</v>
+        <v>0.04247048254811186</v>
       </c>
     </row>
     <row r="11">
@@ -21815,10 +22467,10 @@
         <v>-15</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.8258202511627907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8086388071428571</v>
+        <v>0.02067417241066512</v>
       </c>
     </row>
     <row r="12">
@@ -21829,10 +22481,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.8121940344444444</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8310574066666666</v>
+        <v>0.02729914838583556</v>
       </c>
     </row>
     <row r="13">
@@ -21843,10 +22495,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.8005924680851063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8185736066666666</v>
+        <v>0.03457080550025562</v>
       </c>
     </row>
     <row r="14">
@@ -21857,10 +22509,10 @@
         <v>-15</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9122571604651163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8980547944444444</v>
+        <v>0.01948552371373585</v>
       </c>
     </row>
     <row r="15">
@@ -21871,10 +22523,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.8820613217391304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9073454866666667</v>
+        <v>0.02138708365944017</v>
       </c>
     </row>
     <row r="16">
@@ -21885,462 +22537,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.8849130043478262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.91100448125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>FeltLocation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08332000583333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03389060666666667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03593158673333333</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2289309333333333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.168861068125</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.216043638</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5732893384615385</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5337280607142857</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5409015579999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8596210533333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7757468970588235</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8000308823529412</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9165571857142857</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8435034625</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8545002529411764</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>FeltLocation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08502886432432433</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.03220909310638298</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05322542444186047</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2583367131818182</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1660369091489362</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1614615508695652</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.611549658974359</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.581846115625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6049316504651163</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8258202511627907</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8121940344444444</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8005924680851063</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-15</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9122571604651163</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8820613217391304</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8849130043478262</v>
+        <v>0.02020200030172527</v>
       </c>
     </row>
   </sheetData>
